--- a/module2/HLR.xlsx
+++ b/module2/HLR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e91467018c476d9e/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e91467018c476d9e/Desktop/TOPS/module2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F25DC773A252ABDACC1048D2115A48B05ADE58E1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D213CD48-E4CE-4987-B35D-1D1D0C67B276}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_F25DC773A252ABDACC1048D2115A48B05ADE58E1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DD4BCEC-05CD-4A34-8758-73580A3FB02E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="instagram HLR" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="instagram mobile" sheetId="8" r:id="rId8"/>
     <sheet name="whatsappweb" sheetId="9" r:id="rId9"/>
     <sheet name="facebook" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet10" sheetId="11" r:id="rId11"/>
+    <sheet name=" testcase art of testing" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2730,6 +2730,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4967,8 +4971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B448F8-D676-440E-8B6E-5687B31B9970}">
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8804,7 +8808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8FE5E10-26CA-4B9F-ADD6-9A360922A6B4}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
